--- a/Algorithm documentation/Complexity analysis.xlsx
+++ b/Algorithm documentation/Complexity analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="24915" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <t>N^3</t>
   </si>
   <si>
-    <t>(N*2)^2</t>
+    <t>4(N^2)</t>
   </si>
 </sst>
 </file>
@@ -156,10 +156,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -167,15 +167,63 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="20">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -183,10 +231,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>87</c:v>
                 </c:pt>
@@ -194,9 +242,57 @@
                   <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2846</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6332</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7797</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>9393</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11169</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13092</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15155</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17373</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19748</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22263</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24925</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27755</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>30730</c:v>
                 </c:pt>
               </c:numCache>
@@ -223,10 +319,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -234,15 +330,63 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="20">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -250,10 +394,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>Sheet1!$D$2:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>122</c:v>
                 </c:pt>
@@ -261,9 +405,57 @@
                   <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1631</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2264</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5491</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6863</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>8757</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>10045</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11778</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14265</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16683</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18489</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21101</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29266</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>32608</c:v>
                 </c:pt>
               </c:numCache>
@@ -290,10 +482,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$7</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -301,15 +493,63 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="20">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="21">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -317,10 +557,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>Sheet1!$E$2:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>99.497</c:v>
                 </c:pt>
@@ -328,9 +568,57 @@
                   <c:v>358.27300000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>771.21299999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1334.99</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2048.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2918.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3934.76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5107.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6425.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>7899.48</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>9528.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11302.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13233</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15311.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17540.900000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19924.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22455.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25135.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27978.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>30956.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -357,10 +645,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$5</c:f>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>25</c:v>
                 </c:pt>
@@ -368,9 +656,57 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2500</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>3025</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4225</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5625</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7225</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9025</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
@@ -387,7 +723,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>(N*2)^2</c:v>
+                  <c:v>4(N^2)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -397,10 +733,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$5</c:f>
+              <c:f>Sheet1!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -408,50 +744,58 @@
                   <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>10000</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36100</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>40000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>N^3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>125000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,11 +812,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="561793024"/>
-        <c:axId val="561940160"/>
+        <c:axId val="529735168"/>
+        <c:axId val="526585792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="561793024"/>
+        <c:axId val="529735168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +845,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561940160"/>
+        <c:crossAx val="526585792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -509,7 +853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="561940160"/>
+        <c:axId val="526585792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -539,7 +883,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="561793024"/>
+        <c:crossAx val="529735168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -560,7 +904,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -571,7 +915,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9312207" cy="6089920"/>
+    <xdr:ext cx="9326217" cy="6087717"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -881,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,131 +1314,595 @@
         <v>358.27300000000002</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F7" si="0">A3^2</f>
+        <f>A3^2</f>
         <v>100</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G7" si="1">(A3 * 2)^2</f>
+        <f t="shared" ref="G3:G23" si="0">(A3 * 2)^2</f>
         <v>400</v>
       </c>
       <c r="H3" s="1">
-        <f t="shared" ref="H3:H7" si="2">A3^3</f>
+        <f t="shared" ref="H3:H23" si="1">A3^3</f>
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>1000</v>
       </c>
       <c r="C4" s="1">
-        <v>7797</v>
+        <v>726</v>
       </c>
       <c r="D4" s="1">
-        <v>8757</v>
+        <v>941</v>
       </c>
       <c r="E4" s="1">
-        <v>7899.48</v>
+        <v>771.21299999999997</v>
       </c>
       <c r="F4" s="1">
+        <f t="shared" ref="F4:F23" si="2">A4^2</f>
+        <v>225</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1281</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1631</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1334.99</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1988</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2264</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2048.42</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="H4" s="1">
+        <v>15625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2846</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3234</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2918.82</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="2"/>
-        <v>125000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>100</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>30730</v>
-      </c>
-      <c r="D5" s="1">
-        <v>32608</v>
-      </c>
-      <c r="E5" s="1">
-        <v>30956.6</v>
-      </c>
-      <c r="F5" s="1">
+        <v>900</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>35</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3859</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4245</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3934.76</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>1225</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>4900</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>42875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5015</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5491</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5107.59</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>1600</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6332</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6863</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6425.65</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>2025</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>8100</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>91125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7797</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8757</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7899.48</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9393</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10045</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9528.33</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>3025</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>12100</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>166375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11169</v>
+      </c>
+      <c r="D13" s="1">
+        <v>11778</v>
+      </c>
+      <c r="E13" s="1">
+        <v>11302.5</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>3600</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>13092</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14265</v>
+      </c>
+      <c r="E14" s="1">
+        <v>13233</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="2"/>
+        <v>4225</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>16900</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>274625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>15155</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16683</v>
+      </c>
+      <c r="E15" s="1">
+        <v>15311.2</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="2"/>
+        <v>4900</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>19600</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>343000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>17373</v>
+      </c>
+      <c r="D16" s="1">
+        <v>18489</v>
+      </c>
+      <c r="E16" s="1">
+        <v>17540.900000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>5625</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>22500</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>421875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>19748</v>
+      </c>
+      <c r="D17" s="1">
+        <v>21101</v>
+      </c>
+      <c r="E17" s="1">
+        <v>19924.8</v>
+      </c>
+      <c r="F17" s="1">
+        <f>A17^2</f>
+        <v>6400</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>512000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>85</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>22263</v>
+      </c>
+      <c r="D18" s="1">
+        <v>23399</v>
+      </c>
+      <c r="E18" s="1">
+        <v>22455.8</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="2"/>
+        <v>7225</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>28900</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>614125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>90</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>24925</v>
+      </c>
+      <c r="D19" s="1">
+        <v>25954</v>
+      </c>
+      <c r="E19" s="1">
+        <v>25135.9</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="2"/>
+        <v>8100</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>32400</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>729000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>27755</v>
+      </c>
+      <c r="D20" s="1">
+        <v>29266</v>
+      </c>
+      <c r="E20" s="1">
+        <v>27978.3</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="2"/>
+        <v>9025</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>36100</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>857375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30730</v>
+      </c>
+      <c r="D21" s="1">
+        <v>32608</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30956.6</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="2"/>
+        <v>10000</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>500</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>758187</v>
+      </c>
+      <c r="D22" s="1">
+        <v>765904</v>
+      </c>
+      <c r="E22" s="1">
+        <v>759548</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="2"/>
+        <v>250000</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>125000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3027190</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3039561</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3029940</v>
+      </c>
+      <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>500</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>758187</v>
-      </c>
-      <c r="D6" s="1">
-        <v>765904</v>
-      </c>
-      <c r="E6" s="1">
-        <v>759548</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>250000</v>
-      </c>
-      <c r="G6" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>1000000</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>125000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3027190</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3039561</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3029940</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
-        <v>1000000</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="1"/>
-        <v>4000000</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="2"/>
         <v>1000000000</v>
       </c>
     </row>
